--- a/Transceiver_Cost.xlsx
+++ b/Transceiver_Cost.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Part Receiver</t>
   </si>
@@ -202,13 +202,19 @@
   </si>
   <si>
     <t>(100k production)</t>
+  </si>
+  <si>
+    <t>(USD)</t>
+  </si>
+  <si>
+    <t>(GBP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +236,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -326,8 +344,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,7 +395,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,7 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -1272,112 +1300,145 @@
         <v>0.12</v>
       </c>
       <c r="H25">
-        <v>12400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>0.01</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
+      <c r="A26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H26">
-        <v>610</v>
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="11">
+        <v>12000</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>5.96</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>2500</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>3.18</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>318000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="D28" s="6">
-        <f>SUM(D20:D27)</f>
-        <v>36.26</v>
-      </c>
-      <c r="E28" s="8" t="s">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="D29" s="6">
+        <f>SUM(D20:D28)</f>
+        <v>36.659999999999997</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="6">
-        <f>SUM(H20:H27)</f>
-        <v>2223010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
       <c r="H29" s="6">
-        <f>H28/100000</f>
-        <v>22.2301</v>
+        <f>SUM(H20:H28)</f>
+        <v>2235000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="C30" s="6" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="6">
+        <f>H29/100000</f>
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="6">
-        <f>D28+D17</f>
-        <v>112.93</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10" t="s">
+      <c r="D31" s="6">
+        <f>D29+D17</f>
+        <v>113.33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="6">
-        <f>H29+H18</f>
-        <v>75.46817200000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="6">
+        <f>H30+H18</f>
+        <v>75.588072000000011</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="G32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="6">
-        <v>104.06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="G32" s="1"/>
+      <c r="H32" s="6">
+        <f>H31*1.65</f>
+        <v>124.72031880000002</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="7:7" ht="12.75" customHeight="1">
       <c r="G33" s="1"/>
@@ -1585,6 +1646,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
